--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-235570.9070461778</v>
+        <v>-186175.069721677</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17367124.05617156</v>
+        <v>16693787.93026804</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484457</v>
+        <v>492028.9342484449</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8871229.441390177</v>
+        <v>8886978.404602956</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>320.0331481255878</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>257.091055539935</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>31.64472310719364</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -880,10 +880,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>81.49380289235339</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>32.77389691395845</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>317.9431588491611</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1054,25 +1054,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>1.93390106101495</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.4034011774252</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1145,10 +1145,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>250.0563964323925</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1303,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>36.6148966159471</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>336.4756912621329</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011215</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1427,13 +1427,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>372.6614407146148</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,10 +1588,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>234.1486472602383</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>133.5760436147098</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>278.6580484498521</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>39.59754480244072</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>206.0370214115932</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1856,13 +1856,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>99.18456609161825</v>
+        <v>107.3711413827943</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2011,7 +2011,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2020,7 +2020,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>154.7429394224638</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>34.21677751456808</v>
       </c>
     </row>
     <row r="20">
@@ -2084,10 +2084,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>350.8053333825096</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>139.4242857131135</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2132,7 +2132,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2239,25 +2239,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.1219895342037</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>32.69681262526412</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>238.26504019369</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>145.8285166974206</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2719,19 +2719,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225759</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800052</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225793</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999606</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083128</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972018</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131896</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147862</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828706</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311178</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>71.12675199790326</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755936</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760552</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854136</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629789</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063843</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>392.514659383245</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516991</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215092</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903944</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>156.371820631672</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>163.2513804177632</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443325</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>104.0076614089826</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432434</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934476</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348852</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772312</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593276</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681757</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894733</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398235</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989347</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999606</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083129</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972018</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131897</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147863</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828707</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311178</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>71.12675199790331</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755937</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760552</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854137</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629789</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063843</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245964</v>
+        <v>392.514659383245</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516992</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215093</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903945</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316721</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>163.2513804177633</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443326</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>18.40787475442453</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>76.08474665297337</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934472</v>
+        <v>9.515040001583792</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348853</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772313</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593276</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681758</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894733</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398236</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989348</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999606</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083129</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972018</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131897</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147863</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828707</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311178</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925401</v>
+        <v>71.12675199790331</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755937</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760552</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854137</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629789</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063843</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>392.514659383245</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516992</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215093</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903945</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316721</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>163.2513804177633</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443326</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>104.0076614089809</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432406</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934476</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348853</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772313</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593276</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681758</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894733</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398236</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989348</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6402219259112</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>947.329561119137</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>1003.690796339813</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.8102096861769</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>173.8458429112338</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>173.8458429112338</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>173.8458429112338</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>688.8848573262783</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>2210.968635687901</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1924.013127558332</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>1651.986723144624</v>
       </c>
       <c r="X4" t="n">
-        <v>433.2298803720686</v>
+        <v>1406.594968478036</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.8102096861769</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.6683834787607</v>
+        <v>1786.45307593959</v>
       </c>
       <c r="C5" t="n">
-        <v>516.086709216029</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>912.4008182974577</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2636.140829505129</v>
       </c>
       <c r="X5" t="n">
-        <v>1375.213673623611</v>
+        <v>2216.99836608444</v>
       </c>
       <c r="Y5" t="n">
-        <v>966.9275499232645</v>
+        <v>1808.712242384094</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.89710401677496</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>35.89710401677496</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>35.89710401677496</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>35.89710401677496</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>35.89710401677496</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>35.89710401677496</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1235.38760622724</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1655.056855453022</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1655.056855453022</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="U7" t="n">
-        <v>1259.509060631519</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>972.5535525019498</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>700.5271480882413</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>455.1353934216538</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>227.7157227357621</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>163.9014605315633</v>
+        <v>1671.542826455969</v>
       </c>
       <c r="C8" t="n">
-        <v>129.7993917553907</v>
+        <v>1233.400353639393</v>
       </c>
       <c r="D8" t="n">
-        <v>97.93001097023928</v>
+        <v>797.4905688138373</v>
       </c>
       <c r="E8" t="n">
-        <v>68.19567016893852</v>
+        <v>767.7562280125366</v>
       </c>
       <c r="F8" t="n">
-        <v>44.36864461855031</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>44.36864461855031</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>44.36864461855031</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>44.36864461855031</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>479.6233320714682</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1028.685309226028</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1028.685309226028</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1028.685309226028</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1028.685309226028</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1028.685309226028</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1502.779380215864</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2049.278166174459</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2218.432230927516</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2218.432230927516</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2218.432230927516</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1959.209928244533</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1596.592978178359</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>1191.737523589392</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X8" t="n">
-        <v>772.5950601687031</v>
+        <v>2350.424615559456</v>
       </c>
       <c r="Y8" t="n">
-        <v>364.3089364683565</v>
+        <v>2097.842396940877</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>550.5403896098431</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>444.0839284464854</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.9936395930387</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.8732249199924</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>171.489386536154</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>86.10429680233784</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>44.36864461855031</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>70.4323177790079</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.9906427452203</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>944.0526198997803</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1590.435628003019</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1707.608406097359</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1644.152968545742</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.974324876344</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1337.637777876312</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1138.520259938311</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>953.1975056715055</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>798.3300699103855</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.8442906896063</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>957.8355302562593</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>785.2738187394842</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>619.3958259410069</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>449.6378221917442</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>272.9307681535005</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>272.9307681535005</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>133.028593843875</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>44.36864461855031</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>130.9483297832402</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>131.3035356248738</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>549.5134173928349</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1008.997284573748</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.256087731392</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1870.925336957174</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2218.432230927516</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2218.432230927516</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2218.432230927516</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2218.432230927516</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2218.432230927516</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>2181.447486871004</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1894.491978741434</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1622.465574327726</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1377.073819661138</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1149.654148975246</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2517.633444329803</v>
+        <v>2423.504447438969</v>
       </c>
       <c r="C11" t="n">
-        <v>2079.490971513227</v>
+        <v>1985.361974622393</v>
       </c>
       <c r="D11" t="n">
-        <v>1643.581186687671</v>
+        <v>1645.487539004077</v>
       </c>
       <c r="E11" t="n">
-        <v>1209.806441845966</v>
+        <v>1211.712794162372</v>
       </c>
       <c r="F11" t="n">
-        <v>781.9390122551731</v>
+        <v>783.8453645715796</v>
       </c>
       <c r="G11" t="n">
-        <v>380.541180878437</v>
+        <v>382.4475331948435</v>
       </c>
       <c r="H11" t="n">
-        <v>91.41102632165412</v>
+        <v>93.31737863805974</v>
       </c>
       <c r="I11" t="n">
-        <v>91.41102632165412</v>
+        <v>92.90058926519974</v>
       </c>
       <c r="J11" t="n">
-        <v>526.6657137745719</v>
+        <v>528.1552767181176</v>
       </c>
       <c r="K11" t="n">
-        <v>1361.01600573275</v>
+        <v>1362.505568676296</v>
       </c>
       <c r="L11" t="n">
-        <v>2436.075971985609</v>
+        <v>2437.565534929155</v>
       </c>
       <c r="M11" t="n">
-        <v>2592.907709925947</v>
+        <v>2437.565534929155</v>
       </c>
       <c r="N11" t="n">
-        <v>2592.907709925947</v>
+        <v>2437.565534929155</v>
       </c>
       <c r="O11" t="n">
-        <v>3573.087376496253</v>
+        <v>3417.745201499461</v>
       </c>
       <c r="P11" t="n">
-        <v>4401.397251329649</v>
+        <v>4246.055076332857</v>
       </c>
       <c r="Q11" t="n">
-        <v>4401.397251329649</v>
+        <v>4645.029463259987</v>
       </c>
       <c r="R11" t="n">
-        <v>4570.551316082706</v>
+        <v>4645.029463259987</v>
       </c>
       <c r="S11" t="n">
-        <v>4570.551316082706</v>
+        <v>4561.377589443824</v>
       </c>
       <c r="T11" t="n">
-        <v>4350.484088955744</v>
+        <v>4341.310362316863</v>
       </c>
       <c r="U11" t="n">
-        <v>4091.261786272761</v>
+        <v>4082.088059633879</v>
       </c>
       <c r="V11" t="n">
-        <v>3728.644836206588</v>
+        <v>4082.088059633879</v>
       </c>
       <c r="W11" t="n">
-        <v>3352.219138515058</v>
+        <v>3677.232605044913</v>
       </c>
       <c r="X11" t="n">
-        <v>3352.219138515058</v>
+        <v>3258.090141624224</v>
       </c>
       <c r="Y11" t="n">
-        <v>2943.933014814711</v>
+        <v>2849.804017923877</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>597.5827713129469</v>
+        <v>599.0723342564926</v>
       </c>
       <c r="C12" t="n">
-        <v>491.1263101495892</v>
+        <v>492.6158730931348</v>
       </c>
       <c r="D12" t="n">
-        <v>396.0360212961425</v>
+        <v>397.5255842396881</v>
       </c>
       <c r="E12" t="n">
-        <v>301.9156066230962</v>
+        <v>303.4051695666418</v>
       </c>
       <c r="F12" t="n">
-        <v>218.5317682392578</v>
+        <v>220.0213311828034</v>
       </c>
       <c r="G12" t="n">
-        <v>133.1466785054417</v>
+        <v>134.6362414489873</v>
       </c>
       <c r="H12" t="n">
-        <v>91.41102632165412</v>
+        <v>92.90058926519974</v>
       </c>
       <c r="I12" t="n">
-        <v>117.4746994821117</v>
+        <v>118.9642624256573</v>
       </c>
       <c r="J12" t="n">
-        <v>442.0330244483241</v>
+        <v>443.5225873918696</v>
       </c>
       <c r="K12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="L12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="M12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="N12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="O12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="P12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="Q12" t="n">
-        <v>1637.478009706123</v>
+        <v>1638.967572649669</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.650787800463</v>
+        <v>1756.140350744009</v>
       </c>
       <c r="S12" t="n">
-        <v>1691.195350248846</v>
+        <v>1692.684913192392</v>
       </c>
       <c r="T12" t="n">
-        <v>1561.016706579448</v>
+        <v>1562.506269522993</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.680159579416</v>
+        <v>1386.169722522962</v>
       </c>
       <c r="V12" t="n">
-        <v>1185.562641641415</v>
+        <v>1187.052204584961</v>
       </c>
       <c r="W12" t="n">
-        <v>1000.239887374609</v>
+        <v>1001.729450318155</v>
       </c>
       <c r="X12" t="n">
-        <v>845.3724516134893</v>
+        <v>846.862014557035</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.88667239271</v>
+        <v>720.3762353362557</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1081.809237708211</v>
+        <v>943.3966263421311</v>
       </c>
       <c r="C13" t="n">
-        <v>909.2475261914359</v>
+        <v>770.834914825356</v>
       </c>
       <c r="D13" t="n">
-        <v>743.3695333929586</v>
+        <v>604.9569220268788</v>
       </c>
       <c r="E13" t="n">
-        <v>573.6115296436958</v>
+        <v>435.198918277616</v>
       </c>
       <c r="F13" t="n">
-        <v>396.904475605452</v>
+        <v>258.4918642393723</v>
       </c>
       <c r="G13" t="n">
-        <v>231.3132006312797</v>
+        <v>92.90058926519987</v>
       </c>
       <c r="H13" t="n">
-        <v>91.41102632165422</v>
+        <v>92.90058926519974</v>
       </c>
       <c r="I13" t="n">
-        <v>91.41102632165412</v>
+        <v>92.90058926519974</v>
       </c>
       <c r="J13" t="n">
-        <v>177.990711486344</v>
+        <v>179.4802744298896</v>
       </c>
       <c r="K13" t="n">
-        <v>452.7491660574796</v>
+        <v>454.2387290010252</v>
       </c>
       <c r="L13" t="n">
-        <v>870.9590478254406</v>
+        <v>872.4486107689863</v>
       </c>
       <c r="M13" t="n">
-        <v>1330.442915006354</v>
+        <v>1331.932477949899</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.701718163998</v>
+        <v>1774.191281107544</v>
       </c>
       <c r="O13" t="n">
-        <v>2192.37096738978</v>
+        <v>2193.860530333325</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.877861360122</v>
+        <v>2541.367424303667</v>
       </c>
       <c r="Q13" t="n">
-        <v>2708.070636224454</v>
+        <v>2709.560199168</v>
       </c>
       <c r="R13" t="n">
-        <v>2708.070636224454</v>
+        <v>2709.560199168</v>
       </c>
       <c r="S13" t="n">
-        <v>2548.82926752245</v>
+        <v>2691.321030125315</v>
       </c>
       <c r="T13" t="n">
-        <v>2302.949821100905</v>
+        <v>2445.44158370377</v>
       </c>
       <c r="U13" t="n">
-        <v>2024.516820354011</v>
+        <v>2167.008582956876</v>
       </c>
       <c r="V13" t="n">
-        <v>1737.561312224441</v>
+        <v>1880.053074827306</v>
       </c>
       <c r="W13" t="n">
-        <v>1737.561312224441</v>
+        <v>1608.026670413597</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.04752711309</v>
+        <v>1362.63491574701</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.627856427198</v>
+        <v>1135.215245061118</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.327580924765</v>
+        <v>2229.979503763751</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.185108108189</v>
+        <v>1791.837030947174</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.275323282633</v>
+        <v>1355.927246121619</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.500578440928</v>
+        <v>922.1525012799138</v>
       </c>
       <c r="F14" t="n">
-        <v>786.6331488501357</v>
+        <v>787.2272046993987</v>
       </c>
       <c r="G14" t="n">
-        <v>385.2353174733996</v>
+        <v>385.8293733226626</v>
       </c>
       <c r="H14" t="n">
-        <v>96.10516291661588</v>
+        <v>96.69921876587884</v>
       </c>
       <c r="I14" t="n">
-        <v>96.10516291661588</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J14" t="n">
-        <v>96.10516291661588</v>
+        <v>531.5371168459367</v>
       </c>
       <c r="K14" t="n">
-        <v>930.4554548747938</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L14" t="n">
-        <v>2005.515421127653</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M14" t="n">
-        <v>2005.515421127653</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="N14" t="n">
-        <v>2281.11575371544</v>
+        <v>2459.133142288646</v>
       </c>
       <c r="O14" t="n">
-        <v>3261.295420285747</v>
+        <v>3439.312808858952</v>
       </c>
       <c r="P14" t="n">
-        <v>4089.605295119143</v>
+        <v>4267.622683692348</v>
       </c>
       <c r="Q14" t="n">
-        <v>4636.104081077738</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="R14" t="n">
-        <v>4805.258145830794</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="S14" t="n">
-        <v>4721.606272014631</v>
+        <v>4730.469595834779</v>
       </c>
       <c r="T14" t="n">
-        <v>4721.606272014631</v>
+        <v>4510.402368707818</v>
       </c>
       <c r="U14" t="n">
-        <v>4462.383969331648</v>
+        <v>4251.180066024835</v>
       </c>
       <c r="V14" t="n">
-        <v>4180.911193119676</v>
+        <v>3888.563115958661</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.055738530709</v>
+        <v>3483.707661369695</v>
       </c>
       <c r="X14" t="n">
-        <v>3356.91327511002</v>
+        <v>3064.565197949005</v>
       </c>
       <c r="Y14" t="n">
-        <v>2948.627151409673</v>
+        <v>2656.279074248659</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.2769079079087</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C15" t="n">
-        <v>495.820446744551</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D15" t="n">
-        <v>400.7301578911042</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E15" t="n">
-        <v>306.6097432180579</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F15" t="n">
-        <v>223.2259048342195</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G15" t="n">
-        <v>137.8408151004034</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H15" t="n">
-        <v>96.10516291661588</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I15" t="n">
-        <v>122.1688360770735</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="J15" t="n">
-        <v>446.7271610432858</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.71084317441</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X15" t="n">
-        <v>850.0665882084511</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.5808089876718</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.1811790396002</v>
+        <v>1002.778878488125</v>
       </c>
       <c r="C16" t="n">
-        <v>784.1811790396002</v>
+        <v>1002.778878488125</v>
       </c>
       <c r="D16" t="n">
-        <v>618.3031862411229</v>
+        <v>836.9008856896481</v>
       </c>
       <c r="E16" t="n">
-        <v>578.3056662386576</v>
+        <v>667.1428819403855</v>
       </c>
       <c r="F16" t="n">
-        <v>401.5986122004138</v>
+        <v>490.4358279021417</v>
       </c>
       <c r="G16" t="n">
-        <v>236.0073372262415</v>
+        <v>324.8445529279693</v>
       </c>
       <c r="H16" t="n">
-        <v>96.10516291661588</v>
+        <v>184.9423786183435</v>
       </c>
       <c r="I16" t="n">
-        <v>96.10516291661588</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J16" t="n">
-        <v>182.6848480813057</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K16" t="n">
-        <v>457.4433026524413</v>
+        <v>457.6205691288443</v>
       </c>
       <c r="L16" t="n">
-        <v>875.6531844204023</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.39585475896</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.571997955083</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.346951524788</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.105582822784</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.226136401239</v>
+        <v>2504.823835849765</v>
       </c>
       <c r="U16" t="n">
-        <v>2007.793135654344</v>
+        <v>2226.39083510287</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.837627524775</v>
+        <v>1939.4353269733</v>
       </c>
       <c r="W16" t="n">
-        <v>1448.811223111067</v>
+        <v>1667.408922559592</v>
       </c>
       <c r="X16" t="n">
-        <v>1203.419468444479</v>
+        <v>1422.017167893004</v>
       </c>
       <c r="Y16" t="n">
-        <v>975.9997977585874</v>
+        <v>1194.597497207113</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2221.116179943603</v>
+        <v>2229.979503763751</v>
       </c>
       <c r="C17" t="n">
-        <v>1782.973707127026</v>
+        <v>1791.837030947174</v>
       </c>
       <c r="D17" t="n">
-        <v>1347.06392230147</v>
+        <v>1355.927246121619</v>
       </c>
       <c r="E17" t="n">
-        <v>913.2891774597658</v>
+        <v>922.1525012799138</v>
       </c>
       <c r="F17" t="n">
-        <v>485.4217478689736</v>
+        <v>494.2850716891216</v>
       </c>
       <c r="G17" t="n">
-        <v>385.2353174733996</v>
+        <v>385.8293733226626</v>
       </c>
       <c r="H17" t="n">
-        <v>96.10516291661588</v>
+        <v>96.69921876587884</v>
       </c>
       <c r="I17" t="n">
-        <v>96.10516291661588</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J17" t="n">
-        <v>531.3598503695338</v>
+        <v>531.5371168459367</v>
       </c>
       <c r="K17" t="n">
-        <v>1365.710142327712</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L17" t="n">
-        <v>2440.770108580571</v>
+        <v>2289.979077535589</v>
       </c>
       <c r="M17" t="n">
-        <v>2450.269818468497</v>
+        <v>2289.979077535589</v>
       </c>
       <c r="N17" t="n">
-        <v>2450.269818468497</v>
+        <v>2289.979077535589</v>
       </c>
       <c r="O17" t="n">
-        <v>3430.449485038803</v>
+        <v>3270.158744105895</v>
       </c>
       <c r="P17" t="n">
-        <v>4258.759359872199</v>
+        <v>4098.468618939291</v>
       </c>
       <c r="Q17" t="n">
-        <v>4805.258145830794</v>
+        <v>4644.967404897886</v>
       </c>
       <c r="R17" t="n">
-        <v>4805.258145830794</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="S17" t="n">
-        <v>4721.606272014631</v>
+        <v>4730.469595834779</v>
       </c>
       <c r="T17" t="n">
-        <v>4501.53904488767</v>
+        <v>4510.402368707818</v>
       </c>
       <c r="U17" t="n">
-        <v>4242.316742204686</v>
+        <v>4251.180066024835</v>
       </c>
       <c r="V17" t="n">
-        <v>3879.699792138513</v>
+        <v>3888.563115958661</v>
       </c>
       <c r="W17" t="n">
-        <v>3474.844337549546</v>
+        <v>3483.707661369695</v>
       </c>
       <c r="X17" t="n">
-        <v>3055.701874128857</v>
+        <v>3064.565197949005</v>
       </c>
       <c r="Y17" t="n">
-        <v>2647.41575042851</v>
+        <v>2656.279074248659</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.2769079079087</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C18" t="n">
-        <v>495.820446744551</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D18" t="n">
-        <v>400.7301578911042</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E18" t="n">
-        <v>306.6097432180579</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F18" t="n">
-        <v>223.2259048342195</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G18" t="n">
-        <v>137.8408151004034</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H18" t="n">
-        <v>96.10516291661588</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I18" t="n">
-        <v>122.1688360770735</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="J18" t="n">
-        <v>446.7271610432858</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="K18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="L18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="M18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="N18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="O18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="P18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.71084317441</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U18" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X18" t="n">
-        <v>850.0665882084511</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y18" t="n">
-        <v>723.5808089876718</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1086.503374303173</v>
+        <v>998.6335359666564</v>
       </c>
       <c r="C19" t="n">
-        <v>913.9416627863976</v>
+        <v>826.0718244498813</v>
       </c>
       <c r="D19" t="n">
-        <v>748.0636699879203</v>
+        <v>660.193831651404</v>
       </c>
       <c r="E19" t="n">
-        <v>578.3056662386575</v>
+        <v>490.4358279021413</v>
       </c>
       <c r="F19" t="n">
-        <v>401.5986122004137</v>
+        <v>490.4358279021413</v>
       </c>
       <c r="G19" t="n">
-        <v>236.0073372262414</v>
+        <v>324.844552927969</v>
       </c>
       <c r="H19" t="n">
-        <v>96.10516291661588</v>
+        <v>184.9423786183435</v>
       </c>
       <c r="I19" t="n">
-        <v>96.10516291661588</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J19" t="n">
-        <v>182.6848480813057</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K19" t="n">
-        <v>457.4433026524413</v>
+        <v>457.6205691288443</v>
       </c>
       <c r="L19" t="n">
-        <v>875.6531844204023</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N19" t="n">
-        <v>1777.39585475896</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P19" t="n">
-        <v>2544.571997955083</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R19" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S19" t="n">
-        <v>2553.523404117412</v>
+        <v>2553.700670593815</v>
       </c>
       <c r="T19" t="n">
-        <v>2307.643957695867</v>
+        <v>2307.821224172271</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.210956948973</v>
+        <v>2029.388223425376</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.255448819403</v>
+        <v>1742.432715295807</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.229044405695</v>
+        <v>1470.406310882098</v>
       </c>
       <c r="X19" t="n">
-        <v>1313.923044989064</v>
+        <v>1225.01455621551</v>
       </c>
       <c r="Y19" t="n">
-        <v>1086.503374303173</v>
+        <v>1190.452154685644</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2441.183407070564</v>
+        <v>2229.979503763751</v>
       </c>
       <c r="C20" t="n">
-        <v>2003.040934253987</v>
+        <v>1791.837030947174</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.692112655493</v>
+        <v>1355.927246121619</v>
       </c>
       <c r="E20" t="n">
-        <v>1214.917367813788</v>
+        <v>1215.094634290191</v>
       </c>
       <c r="F20" t="n">
-        <v>787.0499382229957</v>
+        <v>787.2272046993987</v>
       </c>
       <c r="G20" t="n">
-        <v>385.6521068462596</v>
+        <v>385.8293733226626</v>
       </c>
       <c r="H20" t="n">
-        <v>96.52195228947588</v>
+        <v>96.69921876587884</v>
       </c>
       <c r="I20" t="n">
-        <v>96.10516291661588</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J20" t="n">
-        <v>531.3598503695338</v>
+        <v>531.5371168459367</v>
       </c>
       <c r="K20" t="n">
-        <v>1365.710142327712</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L20" t="n">
-        <v>2440.770108580571</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M20" t="n">
-        <v>2450.269818468497</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="N20" t="n">
-        <v>2450.269818468497</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="O20" t="n">
-        <v>3430.449485038803</v>
+        <v>3421.127041627281</v>
       </c>
       <c r="P20" t="n">
-        <v>4258.759359872199</v>
+        <v>4249.436916460677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4805.258145830794</v>
+        <v>4795.935702419271</v>
       </c>
       <c r="R20" t="n">
-        <v>4805.258145830794</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="S20" t="n">
-        <v>4721.606272014631</v>
+        <v>4730.469595834779</v>
       </c>
       <c r="T20" t="n">
-        <v>4721.606272014631</v>
+        <v>4510.402368707818</v>
       </c>
       <c r="U20" t="n">
-        <v>4462.383969331648</v>
+        <v>4251.180066024835</v>
       </c>
       <c r="V20" t="n">
-        <v>4099.767019265474</v>
+        <v>3888.563115958661</v>
       </c>
       <c r="W20" t="n">
-        <v>3694.911564676508</v>
+        <v>3483.707661369695</v>
       </c>
       <c r="X20" t="n">
-        <v>3275.769101255818</v>
+        <v>3064.565197949005</v>
       </c>
       <c r="Y20" t="n">
-        <v>2867.482977555472</v>
+        <v>2656.279074248659</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.2769079079087</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C21" t="n">
-        <v>495.820446744551</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D21" t="n">
-        <v>400.7301578911042</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E21" t="n">
-        <v>306.6097432180579</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F21" t="n">
-        <v>223.2259048342195</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G21" t="n">
-        <v>137.8408151004034</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H21" t="n">
-        <v>96.10516291661588</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I21" t="n">
-        <v>122.1688360770735</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="J21" t="n">
-        <v>446.7271610432858</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="K21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="L21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="M21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="N21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="O21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="P21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.71084317441</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U21" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X21" t="n">
-        <v>850.0665882084511</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y21" t="n">
-        <v>723.5808089876718</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>784.1811790396002</v>
+        <v>805.7762668106308</v>
       </c>
       <c r="C22" t="n">
-        <v>611.6194675228252</v>
+        <v>805.7762668106308</v>
       </c>
       <c r="D22" t="n">
-        <v>445.7414747243479</v>
+        <v>805.7762668106308</v>
       </c>
       <c r="E22" t="n">
-        <v>445.7414747243479</v>
+        <v>636.0182630613681</v>
       </c>
       <c r="F22" t="n">
-        <v>269.0344206861041</v>
+        <v>459.3112090231243</v>
       </c>
       <c r="G22" t="n">
-        <v>269.0344206861041</v>
+        <v>324.844552927969</v>
       </c>
       <c r="H22" t="n">
-        <v>129.1322463764786</v>
+        <v>184.9423786183435</v>
       </c>
       <c r="I22" t="n">
-        <v>96.10516291661588</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J22" t="n">
-        <v>182.6848480813057</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K22" t="n">
-        <v>457.4433026524413</v>
+        <v>457.6205691288443</v>
       </c>
       <c r="L22" t="n">
-        <v>875.6531844204023</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N22" t="n">
-        <v>1777.39585475896</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P22" t="n">
-        <v>2544.571997955083</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.346951524788</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S22" t="n">
-        <v>2532.105582822784</v>
+        <v>2553.700670593815</v>
       </c>
       <c r="T22" t="n">
-        <v>2286.226136401239</v>
+        <v>2307.82122417227</v>
       </c>
       <c r="U22" t="n">
-        <v>2007.793135654344</v>
+        <v>2029.388223425375</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.837627524775</v>
+        <v>1742.432715295806</v>
       </c>
       <c r="W22" t="n">
-        <v>1448.811223111067</v>
+        <v>1470.406310882097</v>
       </c>
       <c r="X22" t="n">
-        <v>1203.419468444479</v>
+        <v>1225.01455621551</v>
       </c>
       <c r="Y22" t="n">
-        <v>975.9997977585874</v>
+        <v>997.5948855296181</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2232.36924598063</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1945.413737851061</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>834.8539430951545</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>662.2922315783794</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324585</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>982.155475112751</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,16 +6464,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1694.563362934248</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
         <v>3569.079287993933</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
         <v>444.5591692831957</v>
@@ -6646,22 +6646,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2700.681281130894</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2454.801834709349</v>
       </c>
       <c r="U31" t="n">
         <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W31" t="n">
         <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1371.995166752589</v>
       </c>
       <c r="Y31" t="n">
         <v>1144.575496066698</v>
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6892,7 +6892,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,7 +6944,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483849</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333643</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835859</v>
+        <v>765.7936465207272</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218674</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958783</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>1368.483979554056</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3399.987281602978</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4228.297156436374</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4774.795942394969</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4943.950007148025</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>4872.104803109739</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4663.844245760654</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4416.428612855548</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567251</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756162</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3265.233754113349</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.754300190879</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342532</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174488</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444025</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605641</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>140.614652326748</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347956</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140164</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>995.3999321779643</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936667</v>
+        <v>834.6448904390661</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080655</v>
+        <v>680.5735674184657</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716789</v>
+        <v>522.6222334470798</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463112</v>
+        <v>357.7218491867129</v>
       </c>
       <c r="G40" t="n">
-        <v>293.329412385015</v>
+        <v>203.9372439904177</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882657</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581788</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569475</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773802</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946383</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506868</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526507</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2808.112346440136</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2808.112346440136</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2660.67764751601</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2426.604870872342</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2159.978539903324</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1884.829701551632</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1624.6099669158</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1391.024882027089</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1175.411881119074</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483848</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>765.7936465207267</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218674</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="J41" t="n">
-        <v>444.7825334645019</v>
+        <v>510.3973568216346</v>
       </c>
       <c r="K41" t="n">
-        <v>1279.13282542268</v>
+        <v>1344.747648779813</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.192791675539</v>
+        <v>2419.807615032672</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.192791675539</v>
+        <v>2419.807615032672</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675539</v>
+        <v>2419.807615032672</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>3399.987281602978</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4228.297156436374</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4774.795942394969</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.950007148025</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4872.104803109739</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4663.844245760655</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4416.428612855549</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567251</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756162</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3265.233754113349</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.754300190879</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342532</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174488</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444025</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605641</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>140.614652326748</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K42" t="n">
-        <v>1128.922221872865</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L42" t="n">
-        <v>1128.922221872865</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.922221872865</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.922221872865</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O42" t="n">
-        <v>1128.922221872865</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P42" t="n">
-        <v>1128.922221872865</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347956</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140164</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>985.7887806612126</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936675</v>
+        <v>825.0337389223146</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080663</v>
+        <v>670.9624159017142</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716797</v>
+        <v>513.0110819303281</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>348.1106976699612</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>194.3260924736655</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882665</v>
+        <v>175.7322795904084</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569474</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773801</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946382</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506868</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526507</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2808.112346440136</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2798.501194923385</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999259</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2416.993719355591</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.367388386573</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1875.21855003488</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399048</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1381.413730510338</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1165.800729602323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483848</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445148</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.822481397469</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333641</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835856</v>
+        <v>765.7936465207258</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197256</v>
+        <v>376.2024849218674</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="J44" t="n">
-        <v>444.7825334645019</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="K44" t="n">
-        <v>1279.13282542268</v>
+        <v>605.9315556778621</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.192791675539</v>
+        <v>1680.991521930721</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.192791675539</v>
+        <v>2838.039357141272</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>3963.770340577719</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>4943.950007148025</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4943.950007148025</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4943.950007148025</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.950007148025</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4872.104803109739</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4663.844245760654</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4416.428612855548</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567251</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756161</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3265.233754113349</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.754300190879</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342532</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174488</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444025</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605641</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>140.614652326748</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362754</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K45" t="n">
-        <v>1128.922221872865</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L45" t="n">
-        <v>1128.922221872865</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.922221872865</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.922221872865</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O45" t="n">
-        <v>1128.922221872865</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P45" t="n">
-        <v>1128.922221872865</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347956</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140164</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>995.3999321779638</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936667</v>
+        <v>834.6448904390655</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080655</v>
+        <v>680.5735674184652</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716789</v>
+        <v>522.6222334470792</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463112</v>
+        <v>357.721849186712</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>203.937243990416</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296051</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569474</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773801</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946382</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506868</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526507</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2808.112346440136</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2808.112346440136</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2660.67764751601</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2426.604870872342</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947929</v>
+        <v>2159.978539903324</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1884.829701551632</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1624.6099669158</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976692</v>
+        <v>1391.024882027089</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1175.411881119074</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,22 +8377,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.55209558322758</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>554.6080577318789</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,13 +8462,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>478.882899989733</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318789</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840037</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8611,7 +8611,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3587937794278844</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>158.4158969094324</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>403.0044312395248</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>278.3841743310982</v>
+        <v>18.36946185017314</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9167,10 +9167,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>933.4259280115905</v>
       </c>
       <c r="M17" t="n">
-        <v>9.595666553460433</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>9.595666553460433</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>18.36946185017314</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10112,19 +10112,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>922.6993899926451</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>966.1043795919827</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>350.7230603926101</v>
+        <v>415.6751077562365</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>350.7230603926101</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>512.1742985201026</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>95.07499571516701</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>28.14545932846219</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>8.789189859683376</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>290.0127116801745</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>80.33273211565964</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>128.4628789093294</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>37.38363054573611</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>298.1992869713505</v>
+        <v>290.0127116801744</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>88.19489769745782</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>190.9286964644647</v>
       </c>
     </row>
     <row r="20">
@@ -23972,10 +23972,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>80.7453535947903</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>290.0127116801743</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>30.81337269022691</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>55.07653710780729</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>37.38363054573572</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>44.07191583437665</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>22.80688807744847</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>76.08474665297331</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.515040001583726</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>108.4066747320066</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>22.80688807745025</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>76.08474665297337</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.515040001583792</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>776274.2240345345</v>
+        <v>781262.8248576014</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>776274.2240345345</v>
+        <v>781262.8248576014</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>778947.0194008176</v>
+        <v>781262.8248576014</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>715811.514839196</v>
+        <v>724301.2478515203</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>742565.6487193976</v>
+        <v>743575.9753143346</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>742565.6487193977</v>
+        <v>743575.9753143346</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>742565.6487193977</v>
+        <v>743575.9753143346</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>789962.979709566</v>
+        <v>786513.9805822386</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>789962.979709566</v>
+        <v>786513.9805822385</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>789962.979709566</v>
+        <v>786513.9805822385</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>174247.8789643827</v>
       </c>
       <c r="C2" t="n">
-        <v>174247.8789643828</v>
+        <v>174247.8789643827</v>
       </c>
       <c r="D2" t="n">
         <v>174247.8789643827</v>
       </c>
       <c r="E2" t="n">
-        <v>157612.7006848729</v>
+        <v>159482.0332122583</v>
       </c>
       <c r="F2" t="n">
-        <v>163503.6247730255</v>
+        <v>163726.0859934733</v>
       </c>
       <c r="G2" t="n">
-        <v>163503.6247730255</v>
+        <v>163726.0859934733</v>
       </c>
       <c r="H2" t="n">
-        <v>163503.6247730255</v>
+        <v>163726.0859934734</v>
       </c>
       <c r="I2" t="n">
         <v>171228.7148446394</v>
@@ -26347,13 +26347,13 @@
         <v>171228.7148446394</v>
       </c>
       <c r="N2" t="n">
-        <v>174247.8789643825</v>
+        <v>173402.3069014731</v>
       </c>
       <c r="O2" t="n">
-        <v>174247.8789643827</v>
+        <v>173402.3069014731</v>
       </c>
       <c r="P2" t="n">
-        <v>174247.8789643825</v>
+        <v>173402.306901473</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>40478.87875178354</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>175572.7530518666</v>
+        <v>147420.5464117494</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510012</v>
+        <v>12112.31405579376</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20461.54847120721</v>
+        <v>19872.3124878128</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>32980.84506379819</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>146539.3711242535</v>
+        <v>123042.5210430561</v>
       </c>
       <c r="N3" t="n">
-        <v>12988.56827099789</v>
+        <v>9350.882464078488</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>154281.6601423551</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>25482.65588368837</v>
+        <v>25784.88760309012</v>
       </c>
       <c r="F4" t="n">
-        <v>26435.09430218523</v>
+        <v>26471.06159862457</v>
       </c>
       <c r="G4" t="n">
-        <v>26435.09430218523</v>
+        <v>26471.06159862457</v>
       </c>
       <c r="H4" t="n">
-        <v>26435.09430218523</v>
+        <v>26471.06159862457</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26448,16 +26448,16 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>27684.07875020272</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>42419.67665353612</v>
+        <v>38297.47027415234</v>
       </c>
       <c r="O4" t="n">
-        <v>42419.67665353609</v>
+        <v>38297.47027415228</v>
       </c>
       <c r="P4" t="n">
-        <v>42419.67665353611</v>
+        <v>38297.47027415227</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>67347.76991009823</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69472.38000445713</v>
+        <v>70604.4478415518</v>
       </c>
       <c r="F5" t="n">
-        <v>73039.92381662807</v>
+        <v>73174.64633869432</v>
       </c>
       <c r="G5" t="n">
-        <v>73039.92381662807</v>
+        <v>73174.64633869432</v>
       </c>
       <c r="H5" t="n">
-        <v>73039.92381662807</v>
+        <v>73174.64633869432</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26497,19 +26497,19 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>76130.68928099074</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>76130.68928099074</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>76130.68928099074</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208800.5962930117</v>
+        <v>-254421.6444134397</v>
       </c>
       <c r="C6" t="n">
-        <v>-66609.29563330169</v>
+        <v>-30721.94582939488</v>
       </c>
       <c r="D6" t="n">
-        <v>-87860.42983985425</v>
+        <v>-30721.94582939481</v>
       </c>
       <c r="E6" t="n">
-        <v>-112915.0882551392</v>
+        <v>-84441.43207299548</v>
       </c>
       <c r="F6" t="n">
-        <v>47216.20437911204</v>
+        <v>51887.12713135367</v>
       </c>
       <c r="G6" t="n">
-        <v>64028.60665421224</v>
+        <v>63999.44118714744</v>
       </c>
       <c r="H6" t="n">
-        <v>64028.60665421218</v>
+        <v>63999.44118714753</v>
       </c>
       <c r="I6" t="n">
-        <v>45364.84901743704</v>
+        <v>45930.8606614488</v>
       </c>
       <c r="J6" t="n">
-        <v>-45188.06785634594</v>
+        <v>-108848.1755684445</v>
       </c>
       <c r="K6" t="n">
-        <v>65826.39748864424</v>
+        <v>65803.17314926159</v>
       </c>
       <c r="L6" t="n">
-        <v>32845.55242484607</v>
+        <v>65803.17314926159</v>
       </c>
       <c r="M6" t="n">
-        <v>-80712.97363560928</v>
+        <v>-57239.34789379447</v>
       </c>
       <c r="N6" t="n">
-        <v>43324.01931375875</v>
+        <v>49616.76048176765</v>
       </c>
       <c r="O6" t="n">
-        <v>56312.58758475693</v>
+        <v>58967.64294584619</v>
       </c>
       <c r="P6" t="n">
-        <v>56312.58758475671</v>
+        <v>58967.6429458461</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>554.6080577318789</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1142.637829020676</v>
+        <v>1161.257365814997</v>
       </c>
       <c r="F4" t="n">
-        <v>1201.314536457699</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="G4" t="n">
-        <v>1201.314536457699</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="H4" t="n">
-        <v>1201.314536457699</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787006</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787006</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787006</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>130.3122002117746</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>588.0297712887975</v>
+        <v>493.7421592071398</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702183</v>
+        <v>42.27300159773898</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>76.94596692704681</v>
+        <v>74.73013597200975</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117744</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.0297712887975</v>
+        <v>493.7421592071398</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117746</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.0297712887975</v>
+        <v>493.7421592071398</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702183</v>
+        <v>42.27300159773898</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>113.7278999628231</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>147.1122069234081</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>139.1913712944137</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>143.6516710866794</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27673,13 +27673,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>326.2168836515533</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>97.00787993732126</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>136.5692515055143</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.6331736026335</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>154.1468660309506</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>239.0337741234786</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009811</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874674</v>
+        <v>11.68860308009804</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874736</v>
+        <v>11.68860308009804</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.55209558322758</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>554.6080577318789</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35182,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>478.882899989733</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318789</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840037</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3587937794278844</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>158.4158969094324</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35428,10 +35428,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>403.0044312395248</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
         <v>661.3192390158825</v>
@@ -35571,16 +35571,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>278.3841743310982</v>
+        <v>18.36946185017314</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,10 +35817,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>933.4259280115905</v>
       </c>
       <c r="M17" t="n">
-        <v>9.595666553460433</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,10 +36054,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36121,13 +36121,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>9.595666553460433</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>18.36946185017314</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,10 +36291,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36832,19 +36832,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>922.6993899926451</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37473,7 +37473,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512943</v>
@@ -37543,7 +37543,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37555,16 +37555,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>966.1043795919827</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917877</v>
       </c>
       <c r="K40" t="n">
-        <v>293.769502834844</v>
+        <v>289.2223955761947</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467888</v>
+        <v>434.1228270881395</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446568</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756987</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>435.5969356313919</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>350.7230603926101</v>
+        <v>415.6751077562365</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917872</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761946</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881395</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446567</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756987</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>435.5969356313922</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>350.7230603926101</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>512.1742985201026</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917872</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761946</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881395</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446567</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756987</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>435.5969356313922</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
